--- a/Varios/instalacion.xlsx
+++ b/Varios/instalacion.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Trend\Gestion-cloud\trunk\Varios\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Trend\Gestion-desktop\trunk\Varios\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="19">
   <si>
     <t>Instalar Gestion y POS  en Karminna para probar exportar e importar datos Gestión y POS</t>
   </si>
@@ -45,6 +45,42 @@
   </si>
   <si>
     <t>POS  30 dias gratis algoritmo bloqueo</t>
+  </si>
+  <si>
+    <t>Windows 8 32 bits</t>
+  </si>
+  <si>
+    <t>archivos de programa</t>
+  </si>
+  <si>
+    <t>windows xp 32 bits</t>
+  </si>
+  <si>
+    <t>windows xp 64 bits en ingles</t>
+  </si>
+  <si>
+    <t>Program Files (x86) y Program Files</t>
+  </si>
+  <si>
+    <t>windows 10 32 bits</t>
+  </si>
+  <si>
+    <t>Program Files</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> windows 7 64 bits</t>
+  </si>
+  <si>
+    <t>archivos de programa y Program Files (x86)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> windows 7 32 bits</t>
+  </si>
+  <si>
+    <t>windows 10 64 bits</t>
+  </si>
+  <si>
+    <t>Windows 8 64 bits</t>
   </si>
 </sst>
 </file>
@@ -362,47 +398,108 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A7"/>
+  <dimension ref="A1:B19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+      <selection activeCell="A18" sqref="A18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="80.42578125" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>6</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>7</v>
+      </c>
+      <c r="B13" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>9</v>
+      </c>
+      <c r="B14" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>10</v>
+      </c>
+      <c r="B15" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>12</v>
+      </c>
+      <c r="B17" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>14</v>
+      </c>
+      <c r="B18" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>16</v>
+      </c>
+      <c r="B19" t="s">
+        <v>8</v>
       </c>
     </row>
   </sheetData>
